--- a/benchmarktests/testdefinitions/Benchmarktest_traject 36-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 36-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745E3CE-0579-4194-AE21-2F115A061728}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16105F40-34E9-4AB0-93E8-1A694D9984CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="3510" yWindow="525" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="5" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2284,7 +2284,7 @@
   </sheetPr>
   <dimension ref="B1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E68"/>
     </sheetView>
   </sheetViews>
@@ -2338,11 +2338,11 @@
         <v>0.4</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f>IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D3:D34" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f>IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E3:E34" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -2382,11 +2382,11 @@
         <v>0.41</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f>IF(COUNTIF(F4:L4,"D")&gt;0,"D",IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E4" s="23" t="str">
-        <f>IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F4" s="9" t="str">
@@ -2426,11 +2426,11 @@
         <v>0.66920000000000002</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f>IF(COUNTIF(F5:L5,"D")&gt;0,"D",IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E5" s="23" t="str">
-        <f>IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F5" s="9" t="str">
@@ -2470,11 +2470,11 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="D6" s="23" t="str">
-        <f>IF(COUNTIF(F6:L6,"D")&gt;0,"D",IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E6" s="23" t="str">
-        <f>IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F6" s="9" t="str">
@@ -2514,11 +2514,11 @@
         <v>1.3822000000000001</v>
       </c>
       <c r="D7" s="23" t="str">
-        <f>IF(COUNTIF(F7:L7,"D")&gt;0,"D",IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E7" s="23" t="str">
-        <f>IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F7" s="9" t="str">
@@ -2558,11 +2558,11 @@
         <v>1.4</v>
       </c>
       <c r="D8" s="23" t="str">
-        <f>IF(COUNTIF(F8:L8,"D")&gt;0,"D",IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E8" s="23" t="str">
-        <f>IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F8" s="9" t="str">
@@ -2602,11 +2602,11 @@
         <v>1.41</v>
       </c>
       <c r="D9" s="23" t="str">
-        <f>IF(COUNTIF(F9:L9,"D")&gt;0,"D",IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E9" s="23" t="str">
-        <f>IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F9" s="9" t="str">
@@ -2646,11 +2646,11 @@
         <v>1.9330000000000001</v>
       </c>
       <c r="D10" s="23" t="str">
-        <f>IF(COUNTIF(F10:L10,"D")&gt;0,"D",IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E10" s="23" t="str">
-        <f>IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F10" s="9" t="str">
@@ -2690,11 +2690,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D11" s="23" t="str">
-        <f>IF(COUNTIF(F11:L11,"D")&gt;0,"D",IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E11" s="23" t="str">
-        <f>IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F11" s="9" t="str">
@@ -2734,11 +2734,11 @@
         <v>2.31</v>
       </c>
       <c r="D12" s="23" t="str">
-        <f>IF(COUNTIF(F12:L12,"D")&gt;0,"D",IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E12" s="23" t="str">
-        <f>IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F12" s="9" t="str">
@@ -2778,11 +2778,11 @@
         <v>2.9854000000000003</v>
       </c>
       <c r="D13" s="23" t="str">
-        <f>IF(COUNTIF(F13:L13,"D")&gt;0,"D",IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E13" s="23" t="str">
-        <f>IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F13" s="9" t="str">
@@ -2822,11 +2822,11 @@
         <v>3.0840000000000001</v>
       </c>
       <c r="D14" s="23" t="str">
-        <f>IF(COUNTIF(F14:L14,"D")&gt;0,"D",IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E14" s="23" t="str">
-        <f>IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F14" s="9" t="str">
@@ -2866,11 +2866,11 @@
         <v>3.585</v>
       </c>
       <c r="D15" s="23" t="str">
-        <f>IF(COUNTIF(F15:L15,"D")&gt;0,"D",IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E15" s="23" t="str">
-        <f>IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F15" s="9" t="str">
@@ -2910,11 +2910,11 @@
         <v>4.3879999999999999</v>
       </c>
       <c r="D16" s="23" t="str">
-        <f>IF(COUNTIF(F16:L16,"D")&gt;0,"D",IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E16" s="23" t="str">
-        <f>IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F16" s="9" t="str">
@@ -2954,11 +2954,11 @@
         <v>5.8</v>
       </c>
       <c r="D17" s="23" t="str">
-        <f>IF(COUNTIF(F17:L17,"D")&gt;0,"D",IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E17" s="23" t="str">
-        <f>IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F17" s="9" t="str">
@@ -2998,11 +2998,11 @@
         <v>5.81</v>
       </c>
       <c r="D18" s="23" t="str">
-        <f>IF(COUNTIF(F18:L18,"D")&gt;0,"D",IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E18" s="23" t="str">
-        <f>IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F18" s="9" t="str">
@@ -3042,11 +3042,11 @@
         <v>6.1183999999999994</v>
       </c>
       <c r="D19" s="23" t="str">
-        <f>IF(COUNTIF(F19:L19,"D")&gt;0,"D",IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E19" s="23" t="str">
-        <f>IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F19" s="9" t="str">
@@ -3086,11 +3086,11 @@
         <v>7.1</v>
       </c>
       <c r="D20" s="23" t="str">
-        <f>IF(COUNTIF(F20:L20,"D")&gt;0,"D",IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E20" s="23" t="str">
-        <f>IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F20" s="9" t="str">
@@ -3130,11 +3130,11 @@
         <v>7.11</v>
       </c>
       <c r="D21" s="23" t="str">
-        <f>IF(COUNTIF(F21:L21,"D")&gt;0,"D",IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E21" s="23" t="str">
-        <f>IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F21" s="9" t="str">
@@ -3174,11 +3174,11 @@
         <v>7.1239999999999997</v>
       </c>
       <c r="D22" s="23" t="str">
-        <f>IF(COUNTIF(F22:L22,"D")&gt;0,"D",IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E22" s="23" t="str">
-        <f>IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F22" s="9" t="str">
@@ -3218,11 +3218,11 @@
         <v>7.7080000000000002</v>
       </c>
       <c r="D23" s="23" t="str">
-        <f>IF(COUNTIF(F23:L23,"D")&gt;0,"D",IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E23" s="23" t="str">
-        <f>IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F23" s="9" t="str">
@@ -3262,11 +3262,11 @@
         <v>7.8988999999999994</v>
       </c>
       <c r="D24" s="23" t="str">
-        <f>IF(COUNTIF(F24:L24,"D")&gt;0,"D",IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E24" s="23" t="str">
-        <f>IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F24" s="9" t="str">
@@ -3306,11 +3306,11 @@
         <v>8.1180000000000003</v>
       </c>
       <c r="D25" s="23" t="str">
-        <f>IF(COUNTIF(F25:L25,"D")&gt;0,"D",IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E25" s="23" t="str">
-        <f>IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F25" s="9" t="str">
@@ -3350,11 +3350,11 @@
         <v>8.9220000000000006</v>
       </c>
       <c r="D26" s="23" t="str">
-        <f>IF(COUNTIF(F26:L26,"D")&gt;0,"D",IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E26" s="23" t="str">
-        <f>IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F26" s="9" t="str">
@@ -3394,11 +3394,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D27" s="23" t="str">
-        <f>IF(COUNTIF(F27:L27,"D")&gt;0,"D",IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E27" s="23" t="str">
-        <f>IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F27" s="9" t="str">
@@ -3438,11 +3438,11 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="D28" s="23" t="str">
-        <f>IF(COUNTIF(F28:L28,"D")&gt;0,"D",IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E28" s="23" t="str">
-        <f>IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F28" s="9" t="str">
@@ -3482,11 +3482,11 @@
         <v>9.3124000000000002</v>
       </c>
       <c r="D29" s="23" t="str">
-        <f>IF(COUNTIF(F29:L29,"D")&gt;0,"D",IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E29" s="23" t="str">
-        <f>IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F29" s="9" t="str">
@@ -3526,11 +3526,11 @@
         <v>9.3160000000000007</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f>IF(COUNTIF(F30:L30,"D")&gt;0,"D",IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E30" s="23" t="str">
-        <f>IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F30" s="9" t="str">
@@ -3570,11 +3570,11 @@
         <v>9.5</v>
       </c>
       <c r="D31" s="23" t="str">
-        <f>IF(COUNTIF(F31:L31,"D")&gt;0,"D",IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E31" s="23" t="str">
-        <f>IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F31" s="9" t="str">
@@ -3614,11 +3614,11 @@
         <v>9.51</v>
       </c>
       <c r="D32" s="23" t="str">
-        <f>IF(COUNTIF(F32:L32,"D")&gt;0,"D",IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E32" s="23" t="str">
-        <f>IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F32" s="9" t="str">
@@ -3658,11 +3658,11 @@
         <v>9.6</v>
       </c>
       <c r="D33" s="23" t="str">
-        <f>IF(COUNTIF(F33:L33,"D")&gt;0,"D",IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E33" s="23" t="str">
-        <f>IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F33" s="9" t="str">
@@ -3702,11 +3702,11 @@
         <v>9.61</v>
       </c>
       <c r="D34" s="23" t="str">
-        <f>IF(COUNTIF(F34:L34,"D")&gt;0,"D",IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E34" s="23" t="str">
-        <f>IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F34" s="9" t="str">
@@ -3746,11 +3746,11 @@
         <v>10</v>
       </c>
       <c r="D35" s="23" t="str">
-        <f>IF(COUNTIF(F35:L35,"D")&gt;0,"D",IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D35:D68" si="2">IF(COUNTIF(F35:L35,"D")&gt;0,"D",IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E35" s="23" t="str">
-        <f>IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E35:E66" si="3">IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F35" s="9" t="str">
@@ -3790,11 +3790,11 @@
         <v>10.1</v>
       </c>
       <c r="D36" s="23" t="str">
-        <f>IF(COUNTIF(F36:L36,"D")&gt;0,"D",IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E36" s="23" t="str">
-        <f>IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F36" s="9" t="str">
@@ -3834,11 +3834,11 @@
         <v>10.2233</v>
       </c>
       <c r="D37" s="23" t="str">
-        <f>IF(COUNTIF(F37:L37,"D")&gt;0,"D",IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E37" s="23" t="str">
-        <f>IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F37" s="9" t="str">
@@ -3878,11 +3878,11 @@
         <v>10.252000000000001</v>
       </c>
       <c r="D38" s="23" t="str">
-        <f>IF(COUNTIF(F38:L38,"D")&gt;0,"D",IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E38" s="23" t="str">
-        <f>IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F38" s="9" t="str">
@@ -3922,11 +3922,11 @@
         <v>11.069000000000001</v>
       </c>
       <c r="D39" s="23" t="str">
-        <f>IF(COUNTIF(F39:L39,"D")&gt;0,"D",IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E39" s="23" t="str">
-        <f>IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F39" s="9" t="str">
@@ -3966,11 +3966,11 @@
         <v>11.2</v>
       </c>
       <c r="D40" s="23" t="str">
-        <f>IF(COUNTIF(F40:L40,"D")&gt;0,"D",IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E40" s="23" t="str">
-        <f>IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F40" s="9" t="str">
@@ -4010,11 +4010,11 @@
         <v>11.21</v>
       </c>
       <c r="D41" s="23" t="str">
-        <f>IF(COUNTIF(F41:L41,"D")&gt;0,"D",IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E41" s="23" t="str">
-        <f>IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F41" s="9" t="str">
@@ -4054,11 +4054,11 @@
         <v>11.383799999999999</v>
       </c>
       <c r="D42" s="23" t="str">
-        <f>IF(COUNTIF(F42:L42,"D")&gt;0,"D",IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E42" s="23" t="str">
-        <f>IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F42" s="9" t="str">
@@ -4098,11 +4098,11 @@
         <v>11.8</v>
       </c>
       <c r="D43" s="23" t="str">
-        <f>IF(COUNTIF(F43:L43,"D")&gt;0,"D",IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E43" s="23" t="str">
-        <f>IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F43" s="9" t="str">
@@ -4142,11 +4142,11 @@
         <v>12.009</v>
       </c>
       <c r="D44" s="23" t="str">
-        <f>IF(COUNTIF(F44:L44,"D")&gt;0,"D",IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E44" s="23" t="str">
-        <f>IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F44" s="9" t="str">
@@ -4186,11 +4186,11 @@
         <v>12.3819</v>
       </c>
       <c r="D45" s="23" t="str">
-        <f>IF(COUNTIF(F45:L45,"D")&gt;0,"D",IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E45" s="23" t="str">
-        <f>IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F45" s="9" t="str">
@@ -4230,11 +4230,11 @@
         <v>13.311999999999999</v>
       </c>
       <c r="D46" s="23" t="str">
-        <f>IF(COUNTIF(F46:L46,"D")&gt;0,"D",IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E46" s="23" t="str">
-        <f>IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F46" s="9" t="str">
@@ -4274,11 +4274,11 @@
         <v>13.7217</v>
       </c>
       <c r="D47" s="23" t="str">
-        <f>IF(COUNTIF(F47:L47,"D")&gt;0,"D",IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E47" s="23" t="str">
-        <f>IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F47" s="9" t="str">
@@ -4318,11 +4318,11 @@
         <v>13.815</v>
       </c>
       <c r="D48" s="23" t="str">
-        <f>IF(COUNTIF(F48:L48,"D")&gt;0,"D",IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E48" s="23" t="str">
-        <f>IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F48" s="9" t="str">
@@ -4362,11 +4362,11 @@
         <v>14.618799999999998</v>
       </c>
       <c r="D49" s="23" t="str">
-        <f>IF(COUNTIF(F49:L49,"D")&gt;0,"D",IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E49" s="23" t="str">
-        <f>IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F49" s="9" t="str">
@@ -4406,11 +4406,11 @@
         <v>14.815</v>
       </c>
       <c r="D50" s="23" t="str">
-        <f>IF(COUNTIF(F50:L50,"D")&gt;0,"D",IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E50" s="23" t="str">
-        <f>IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F50" s="9" t="str">
@@ -4450,11 +4450,11 @@
         <v>15.411700000000002</v>
       </c>
       <c r="D51" s="23" t="str">
-        <f>IF(COUNTIF(F51:L51,"D")&gt;0,"D",IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E51" s="23" t="str">
-        <f>IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F51" s="9" t="str">
@@ -4494,11 +4494,11 @@
         <v>15.917999999999999</v>
       </c>
       <c r="D52" s="23" t="str">
-        <f>IF(COUNTIF(F52:L52,"D")&gt;0,"D",IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E52" s="23" t="str">
-        <f>IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F52" s="9" t="str">
@@ -4538,11 +4538,11 @@
         <v>16.620999999999999</v>
       </c>
       <c r="D53" s="23" t="str">
-        <f>IF(COUNTIF(F53:L53,"D")&gt;0,"D",IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E53" s="23" t="str">
-        <f>IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F53" s="9" t="str">
@@ -4582,11 +4582,11 @@
         <v>16.654199999999999</v>
       </c>
       <c r="D54" s="23" t="str">
-        <f>IF(COUNTIF(F54:L54,"D")&gt;0,"D",IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E54" s="23" t="str">
-        <f>IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F54" s="9" t="str">
@@ -4626,11 +4626,11 @@
         <v>16.792099999999998</v>
       </c>
       <c r="D55" s="23" t="str">
-        <f>IF(COUNTIF(F55:L55,"D")&gt;0,"D",IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E55" s="23" t="str">
-        <f>IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F55" s="9" t="str">
@@ -4670,11 +4670,11 @@
         <v>17.53</v>
       </c>
       <c r="D56" s="23" t="str">
-        <f>IF(COUNTIF(F56:L56,"D")&gt;0,"D",IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E56" s="23" t="str">
-        <f>IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F56" s="9" t="str">
@@ -4714,11 +4714,11 @@
         <v>17.875299999999999</v>
       </c>
       <c r="D57" s="23" t="str">
-        <f>IF(COUNTIF(F57:L57,"D")&gt;0,"D",IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E57" s="23" t="str">
-        <f>IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F57" s="9" t="str">
@@ -4758,11 +4758,11 @@
         <v>18.2</v>
       </c>
       <c r="D58" s="23" t="str">
-        <f>IF(COUNTIF(F58:L58,"D")&gt;0,"D",IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E58" s="23" t="str">
-        <f>IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F58" s="9" t="str">
@@ -4802,11 +4802,11 @@
         <v>18.428999999999998</v>
       </c>
       <c r="D59" s="23" t="str">
-        <f>IF(COUNTIF(F59:L59,"D")&gt;0,"D",IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E59" s="23" t="str">
-        <f>IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F59" s="9" t="str">
@@ -4846,11 +4846,11 @@
         <v>18.815099999999997</v>
       </c>
       <c r="D60" s="23" t="str">
-        <f>IF(COUNTIF(F60:L60,"D")&gt;0,"D",IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E60" s="23" t="str">
-        <f>IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F60" s="9" t="str">
@@ -4890,11 +4890,11 @@
         <v>18.841000000000001</v>
       </c>
       <c r="D61" s="23" t="str">
-        <f>IF(COUNTIF(F61:L61,"D")&gt;0,"D",IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E61" s="23" t="str">
-        <f>IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F61" s="9" t="str">
@@ -4934,11 +4934,11 @@
         <v>19.217200000000002</v>
       </c>
       <c r="D62" s="23" t="str">
-        <f>IF(COUNTIF(F62:L62,"D")&gt;0,"D",IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E62" s="23" t="str">
-        <f>IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F62" s="9" t="str">
@@ -4978,11 +4978,11 @@
         <v>19.25</v>
       </c>
       <c r="D63" s="23" t="str">
-        <f>IF(COUNTIF(F63:L63,"D")&gt;0,"D",IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E63" s="23" t="str">
-        <f>IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F63" s="9" t="str">
@@ -5022,11 +5022,11 @@
         <v>19.761599999999998</v>
       </c>
       <c r="D64" s="23" t="str">
-        <f>IF(COUNTIF(F64:L64,"D")&gt;0,"D",IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E64" s="23" t="str">
-        <f>IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F64" s="9" t="str">
@@ -5066,11 +5066,11 @@
         <v>20.268999999999998</v>
       </c>
       <c r="D65" s="23" t="str">
-        <f>IF(COUNTIF(F65:L65,"D")&gt;0,"D",IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E65" s="23" t="str">
-        <f>IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F65" s="9" t="str">
@@ -5110,11 +5110,11 @@
         <v>20.358799999999999</v>
       </c>
       <c r="D66" s="23" t="str">
-        <f>IF(COUNTIF(F66:L66,"D")&gt;0,"D",IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E66" s="23" t="str">
-        <f>IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F66" s="9" t="str">
@@ -5154,11 +5154,11 @@
         <v>20.5168</v>
       </c>
       <c r="D67" s="23" t="str">
-        <f>IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E67" s="23" t="str">
-        <f>IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E67:E68" si="4">IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F67" s="9" t="str">
@@ -5198,11 +5198,11 @@
         <v>21.02</v>
       </c>
       <c r="D68" s="23" t="str">
-        <f>IF(COUNTIF(F68:L68,"D")&gt;0,"D",IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
       <c r="E68" s="23" t="str">
-        <f>IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="4"/>
         <v>-III</v>
       </c>
       <c r="F68" s="9" t="str">
@@ -5633,7 +5633,7 @@
   <dimension ref="B2:Y36"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:O34"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5703,7 +5703,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(1-PRODUCT(R11:R34)&gt;MAX(T11:T34),"Ja","Nee")</f>
+        <f>IF(1-PRODUCT(R11:R34)&gt;=MAX(T11:T34),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
@@ -5844,11 +5844,11 @@
         <v>3.3333333333333335E-5</v>
       </c>
       <c r="V11" s="9">
-        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="W11" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V11)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V11)</f>
         <v>+0</v>
       </c>
       <c r="X11" s="12" t="b">
@@ -5920,11 +5920,11 @@
         <v>1</v>
       </c>
       <c r="V12" s="9">
-        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V12)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V12)</f>
         <v>-III</v>
       </c>
       <c r="X12" s="12" t="b">
@@ -5996,11 +5996,11 @@
         <v>1</v>
       </c>
       <c r="V13" s="9">
-        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V13)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V13)</f>
         <v>-III</v>
       </c>
       <c r="X13" s="12" t="b">
@@ -6072,11 +6072,11 @@
         <v>1</v>
       </c>
       <c r="V14" s="9">
-        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V14)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V14)</f>
         <v>-III</v>
       </c>
       <c r="X14" s="12" t="b">
@@ -6148,11 +6148,11 @@
         <v>1E-4</v>
       </c>
       <c r="V15" s="9">
-        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="W15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V15)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V15)</f>
         <v>-I</v>
       </c>
       <c r="X15" s="12" t="b">
@@ -6224,11 +6224,11 @@
         <v>1E-3</v>
       </c>
       <c r="V16" s="9">
-        <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>6</v>
       </c>
       <c r="W16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V16)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V16)</f>
         <v>-II</v>
       </c>
       <c r="X16" s="12" t="b">
@@ -6300,11 +6300,11 @@
         <v>1</v>
       </c>
       <c r="V17" s="9">
-        <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V17)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V17)</f>
         <v>-III</v>
       </c>
       <c r="X17" s="12" t="b">
@@ -6376,11 +6376,11 @@
         <v>1</v>
       </c>
       <c r="V18" s="9">
-        <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V18)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V18)</f>
         <v>-III</v>
       </c>
       <c r="X18" s="12" t="b">
@@ -6452,11 +6452,11 @@
         <v>1E-4</v>
       </c>
       <c r="V19" s="9">
-        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="W19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V19)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V19)</f>
         <v>-I</v>
       </c>
       <c r="X19" s="12" t="b">
@@ -6528,11 +6528,11 @@
         <v>1</v>
       </c>
       <c r="V20" s="9">
-        <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V20)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V20)</f>
         <v>-III</v>
       </c>
       <c r="X20" s="12" t="b">
@@ -6604,11 +6604,11 @@
         <v>0</v>
       </c>
       <c r="V21" s="9">
-        <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V21)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V21)</f>
         <v>+III</v>
       </c>
       <c r="X21" s="12" t="b">
@@ -6680,11 +6680,11 @@
         <v>3.3333333333333334E-8</v>
       </c>
       <c r="V22" s="9">
-        <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V22)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V22)</f>
         <v>+III</v>
       </c>
       <c r="X22" s="12" t="b">
@@ -6756,11 +6756,11 @@
         <v>1</v>
       </c>
       <c r="V23" s="9">
-        <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V23)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V23)</f>
         <v>-III</v>
       </c>
       <c r="X23" s="12" t="b">
@@ -6832,11 +6832,11 @@
         <v>1</v>
       </c>
       <c r="V24" s="9">
-        <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V24)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V24)</f>
         <v>-III</v>
       </c>
       <c r="X24" s="12" t="b">
@@ -6908,11 +6908,11 @@
         <v>1</v>
       </c>
       <c r="V25" s="9">
-        <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V25)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V25)</f>
         <v>-III</v>
       </c>
       <c r="X25" s="12" t="b">
@@ -6984,11 +6984,11 @@
         <v>1</v>
       </c>
       <c r="V26" s="9">
-        <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V26)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V26)</f>
         <v>-III</v>
       </c>
       <c r="X26" s="12" t="b">
@@ -7060,11 +7060,11 @@
         <v>1</v>
       </c>
       <c r="V27" s="9">
-        <f>IFERROR(MATCH($U27,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W27" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V27)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V27)</f>
         <v>-III</v>
       </c>
       <c r="X27" s="12" t="b">
@@ -7136,11 +7136,11 @@
         <v>1E-3</v>
       </c>
       <c r="V28" s="9">
-        <f>IFERROR(MATCH($U28,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>6</v>
       </c>
       <c r="W28" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V28)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V28)</f>
         <v>-II</v>
       </c>
       <c r="X28" s="12" t="b">
@@ -7212,11 +7212,11 @@
         <v>1</v>
       </c>
       <c r="V29" s="9">
-        <f>IFERROR(MATCH($U29,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W29" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V29)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V29)</f>
         <v>-III</v>
       </c>
       <c r="X29" s="12" t="b">
@@ -7288,11 +7288,11 @@
         <v>1</v>
       </c>
       <c r="V30" s="9">
-        <f>IFERROR(MATCH($U30,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U30,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W30" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V30)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V30)</f>
         <v>-III</v>
       </c>
       <c r="X30" s="12" t="b">
@@ -7364,11 +7364,11 @@
         <v>1</v>
       </c>
       <c r="V31" s="9">
-        <f>IFERROR(MATCH($U31,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U31,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W31" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V31)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V31)</f>
         <v>-III</v>
       </c>
       <c r="X31" s="12" t="b">
@@ -7440,11 +7440,11 @@
         <v>1</v>
       </c>
       <c r="V32" s="9">
-        <f>IFERROR(MATCH($U32,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U32,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W32" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V32)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V32)</f>
         <v>-III</v>
       </c>
       <c r="X32" s="12" t="b">
@@ -7516,11 +7516,11 @@
         <v>1</v>
       </c>
       <c r="V33" s="9">
-        <f>IFERROR(MATCH($U33,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U33,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W33" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V33)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V33)</f>
         <v>-III</v>
       </c>
       <c r="X33" s="12" t="b">
@@ -7592,11 +7592,11 @@
         <v>1</v>
       </c>
       <c r="V34" s="14">
-        <f>IFERROR(MATCH($U34,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U34,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W34" s="14" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V34)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V34)</f>
         <v>-III</v>
       </c>
       <c r="X34" s="17" t="b">
@@ -7727,7 +7727,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:O13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7797,7 +7797,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(1-PRODUCT(R11:R30)&gt;MAX(T11:T30),"Ja","Nee")</f>
+        <f>IF(1-PRODUCT(R11:R30)&gt;=MAX(T11:T30),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
@@ -7998,7 +7998,7 @@
         <v>0.99874624000000001</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" ref="R12:R13" si="5">IF(M12="-",1,Q12)</f>
+        <f>IF(M12="-",1,Q12)</f>
         <v>0.99874624000000001</v>
       </c>
       <c r="S12" s="10">
@@ -8006,7 +8006,7 @@
         <v>3.5520000000000005E-3</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T13" si="6">IF(L12="-",0,S12)</f>
+        <f>IF(L12="-",0,S12)</f>
         <v>3.5520000000000005E-3</v>
       </c>
       <c r="U12" s="9">
@@ -8022,7 +8022,7 @@
         <v>-III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X13" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f>IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8074,7 +8074,7 @@
         <v>0.82432232000000005</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="5"/>
+        <f>IF(M13="-",1,Q13)</f>
         <v>0.82432232000000005</v>
       </c>
       <c r="S13" s="10">
@@ -8082,7 +8082,7 @@
         <v>0.90871999999999997</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="6"/>
+        <f>IF(L13="-",0,S13)</f>
         <v>0.90871999999999997</v>
       </c>
       <c r="U13" s="9">
@@ -8098,7 +8098,7 @@
         <v>-III</v>
       </c>
       <c r="X13" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f>IF($E13="Ja",IF($I13="Ja",NOT(ISNUMBER($J13)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8632,8 +8632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:U73"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8649,7 +8649,7 @@
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8699,7 +8699,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(1-PRODUCT(N11:N71)&gt;MAX(P11:P71),"Ja","Nee")</f>
+        <f>IF(1-PRODUCT(N11:N71)&gt;=MAX(P11:P71),"Ja","Nee")</f>
         <v>Ja</v>
       </c>
     </row>
@@ -8812,11 +8812,11 @@
         <v>3.4999999999999997E-5</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-5</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="S11" s="9" t="str">
@@ -8860,27 +8860,27 @@
         <v>-I</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" ref="M12:M14" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
+        <f t="shared" ref="M12:M31" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>0.99996368999999996</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N14" si="6">IF(J12="-",1,M12)</f>
+        <f t="shared" ref="N12:N31" si="6">IF(J12="-",1,M12)</f>
         <v>0.99996368999999996</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12:O14" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <f t="shared" ref="O12:O31" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>7.2620000000000006E-5</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P14" si="8">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P31" si="8">IF(J12="-",0,O12)</f>
         <v>7.2620000000000006E-5</v>
       </c>
       <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S12" s="9" t="str">
@@ -8940,11 +8940,11 @@
         <v>6.2619999999999993E-5</v>
       </c>
       <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-5</v>
       </c>
       <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="S13" s="9" t="str">
@@ -9004,11 +9004,11 @@
         <v>6.0139999999999997E-5</v>
       </c>
       <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-5</v>
       </c>
       <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="S14" s="9" t="str">
@@ -9052,27 +9052,27 @@
         <v>-I</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" ref="M15:M31" si="12">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+        <f t="shared" si="5"/>
         <v>0.99994000999999999</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" ref="N15:N31" si="13">IF(J15="-",1,M15)</f>
+        <f t="shared" si="6"/>
         <v>0.99994000999999999</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" ref="O15:O31" si="14">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
+        <f t="shared" si="7"/>
         <v>1.1998E-4</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" ref="P15:P31" si="15">IF(J15="-",0,O15)</f>
+        <f t="shared" si="8"/>
         <v>1.1998E-4</v>
       </c>
       <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S15" s="9" t="str">
@@ -9116,27 +9116,27 @@
         <v>-I</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99994464999999999</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99994464999999999</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.1069999999999999E-4</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.1069999999999999E-4</v>
       </c>
       <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S16" s="9" t="str">
@@ -9180,27 +9180,27 @@
         <v>+III</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S17" s="9" t="str">
@@ -9244,27 +9244,27 @@
         <v>-I</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99993392000000003</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99993392000000003</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.3216000000000001E-4</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.3216000000000001E-4</v>
       </c>
       <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S18" s="9" t="str">
@@ -9308,27 +9308,27 @@
         <v>+0</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99998597</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99998597</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2.8059999999999999E-5</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.8059999999999999E-5</v>
       </c>
       <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-5</v>
       </c>
       <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="S19" s="9" t="str">
@@ -9372,27 +9372,27 @@
         <v>+0</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99997464999999996</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99997464999999996</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>5.0699999999999999E-5</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>5.0699999999999999E-5</v>
       </c>
       <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-5</v>
       </c>
       <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="S20" s="9" t="str">
@@ -9436,27 +9436,27 @@
         <v>-I</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99996070000000004</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99996070000000004</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>7.86E-5</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>7.86E-5</v>
       </c>
       <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S21" s="9" t="str">
@@ -9500,27 +9500,27 @@
         <v>-I</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99996267999999999</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99996267999999999</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>7.4640000000000004E-5</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>7.4640000000000004E-5</v>
       </c>
       <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S22" s="9" t="str">
@@ -9564,27 +9564,27 @@
         <v>-II</v>
       </c>
       <c r="M23" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99987539999999997</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99987539999999997</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2.4919999999999999E-4</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.4919999999999999E-4</v>
       </c>
       <c r="Q23" s="9">
-        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-3</v>
       </c>
       <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>6</v>
       </c>
       <c r="S23" s="9" t="str">
@@ -9628,27 +9628,27 @@
         <v>-I</v>
       </c>
       <c r="M24" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99994232999999999</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99994232999999999</v>
       </c>
       <c r="O24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.1534E-4</v>
       </c>
       <c r="P24" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.1534E-4</v>
       </c>
       <c r="Q24" s="9">
-        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R24" s="9">
-        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S24" s="9" t="str">
@@ -9692,27 +9692,27 @@
         <v>-I</v>
       </c>
       <c r="M25" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99995838999999997</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99995838999999997</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>8.3220000000000006E-5</v>
       </c>
       <c r="P25" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>8.3220000000000006E-5</v>
       </c>
       <c r="Q25" s="9">
-        <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R25" s="9">
-        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S25" s="9" t="str">
@@ -9756,27 +9756,27 @@
         <v>-I</v>
       </c>
       <c r="M26" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99995694999999996</v>
       </c>
       <c r="N26" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99995694999999996</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>8.6100000000000006E-5</v>
       </c>
       <c r="P26" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>8.6100000000000006E-5</v>
       </c>
       <c r="Q26" s="9">
-        <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R26" s="9">
-        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S26" s="9" t="str">
@@ -9820,27 +9820,27 @@
         <v>-I</v>
       </c>
       <c r="M27" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99996132999999998</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99996132999999998</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>7.7340000000000002E-5</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>7.7340000000000002E-5</v>
       </c>
       <c r="Q27" s="9">
-        <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R27" s="9">
-        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S27" s="9" t="str">
@@ -9884,27 +9884,27 @@
         <v>-I</v>
       </c>
       <c r="M28" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99993736</v>
       </c>
       <c r="N28" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99993736</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.2527999999999999E-4</v>
       </c>
       <c r="P28" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.2527999999999999E-4</v>
       </c>
       <c r="Q28" s="9">
-        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R28" s="9">
-        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S28" s="9" t="str">
@@ -9948,27 +9948,27 @@
         <v>-I</v>
       </c>
       <c r="M29" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99996004000000005</v>
       </c>
       <c r="N29" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99996004000000005</v>
       </c>
       <c r="O29" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>7.9919999999999994E-5</v>
       </c>
       <c r="P29" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>7.9919999999999994E-5</v>
       </c>
       <c r="Q29" s="9">
-        <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R29" s="9">
-        <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S29" s="9" t="str">
@@ -10012,27 +10012,27 @@
         <v>+0</v>
       </c>
       <c r="M30" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99996963000000005</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99996963000000005</v>
       </c>
       <c r="O30" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>6.0739999999999998E-5</v>
       </c>
       <c r="P30" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>6.0739999999999998E-5</v>
       </c>
       <c r="Q30" s="9">
-        <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-5</v>
       </c>
       <c r="R30" s="9">
-        <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="S30" s="9" t="str">
@@ -10076,27 +10076,27 @@
         <v>-I</v>
       </c>
       <c r="M31" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99995339000000005</v>
       </c>
       <c r="N31" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99995339000000005</v>
       </c>
       <c r="O31" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>9.3220000000000005E-5</v>
       </c>
       <c r="P31" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>9.3220000000000005E-5</v>
       </c>
       <c r="Q31" s="9">
-        <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-4</v>
       </c>
       <c r="R31" s="9">
-        <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S31" s="9" t="str">
@@ -11030,8 +11030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
   <dimension ref="B2:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11192,15 +11192,15 @@
         <v>NR</v>
       </c>
       <c r="M11" s="33">
-        <f>IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="15">
-        <f>IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="15">
-        <f>IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="15">
@@ -11208,11 +11208,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="14">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333334E-8</v>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R11" s="14">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="14" t="str">
@@ -11220,7 +11220,7 @@
         <v>+III</v>
       </c>
       <c r="T11" s="17" t="b">
-        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -11353,7 +11353,7 @@
   <dimension ref="B2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K31"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11419,7 +11419,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(1-PRODUCT(N11:N31)&gt;MAX(P11:P31),"Ja","Nee")</f>
+        <f>IF(1-PRODUCT(N11:N31)&gt;=MAX(P11:P31),"Ja","Nee")</f>
         <v>Ja</v>
       </c>
     </row>
@@ -11514,19 +11514,19 @@
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M31" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N31" si="3">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11:O31" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f>IF(J11="-",0,O11)</f>
+        <f t="shared" ref="P11:P31" si="5">IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
@@ -11542,7 +11542,7 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f t="shared" ref="T11:T31" si="6">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -11590,7 +11590,7 @@
         <v>2.22E-8</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" si="5"/>
         <v>2.22E-8</v>
       </c>
       <c r="Q12" s="9">
@@ -11606,7 +11606,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T31" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11640,15 +11640,15 @@
         <v>NR</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M19" si="7">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N19" si="8">IF(J13="-",1,M13)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O19" si="9">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P13" s="10">
@@ -11704,19 +11704,19 @@
         <v>+I</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.99999899999999997</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.99999899999999997</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P19" si="10">IF(J14="-",0,O14)</f>
+        <f t="shared" si="5"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q14" s="9">
@@ -11766,19 +11766,19 @@
         <v>NR</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -11830,19 +11830,19 @@
         <v>+II</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.99999977799999995</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.99999977799999995</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>6.6600000000000006E-7</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>6.6600000000000006E-7</v>
       </c>
       <c r="Q16" s="9">
@@ -11892,19 +11892,19 @@
         <v>NR</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -11956,19 +11956,19 @@
         <v>+II</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.99999985000000002</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.99999985000000002</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>4.4999999999999998E-7</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4.4999999999999998E-7</v>
       </c>
       <c r="Q18" s="9">
@@ -12018,19 +12018,19 @@
         <v>NR</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -12074,7 +12074,7 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" ref="J20:J31" si="11">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
+        <f t="shared" ref="J20:J31" si="7">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
         <v>1.4999999999999999E-7</v>
       </c>
       <c r="K20" s="32" t="str">
@@ -12082,19 +12082,19 @@
         <v>+II</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" ref="M20:M31" si="12">IF(AND(F20="Geen faalkans",H20="Nee"),1,1-J20)</f>
+        <f t="shared" si="2"/>
         <v>0.99999985000000002</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" ref="N20:N31" si="13">IF(J20="-",1,M20)</f>
+        <f t="shared" si="3"/>
         <v>0.99999985000000002</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" ref="O20:O31" si="14">IF(AND(F20="Geen faalkans",H20="Nee"),0,J20*$C$3)</f>
+        <f t="shared" si="4"/>
         <v>4.4999999999999998E-7</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" ref="P20:P31" si="15">IF(J20="-",0,O20)</f>
+        <f t="shared" si="5"/>
         <v>4.4999999999999998E-7</v>
       </c>
       <c r="Q20" s="9">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
@@ -12144,19 +12144,19 @@
         <v>NR</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -12200,7 +12200,7 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>7.4000000000000001E-9</v>
       </c>
       <c r="K22" s="32" t="str">
@@ -12208,19 +12208,19 @@
         <v>+III</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0.99999999260000005</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0.99999999260000005</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>2.22E-8</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>2.22E-8</v>
       </c>
       <c r="Q22" s="9">
@@ -12262,7 +12262,7 @@
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K23" s="32" t="str">
@@ -12270,19 +12270,19 @@
         <v>NR</v>
       </c>
       <c r="M23" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>6.9999999999999997E-7</v>
       </c>
       <c r="K24" s="32" t="str">
@@ -12334,19 +12334,19 @@
         <v>+I</v>
       </c>
       <c r="M24" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0.99999930000000004</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0.99999930000000004</v>
       </c>
       <c r="O24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>2.0999999999999998E-6</v>
       </c>
       <c r="P24" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>2.0999999999999998E-6</v>
       </c>
       <c r="Q24" s="9">
@@ -12388,7 +12388,7 @@
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K25" s="32" t="str">
@@ -12396,19 +12396,19 @@
         <v>NR</v>
       </c>
       <c r="M25" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P25" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q25" s="9">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>6.9999999999999997E-7</v>
       </c>
       <c r="K26" s="32" t="str">
@@ -12460,19 +12460,19 @@
         <v>+I</v>
       </c>
       <c r="M26" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0.99999930000000004</v>
       </c>
       <c r="N26" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0.99999930000000004</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>2.0999999999999998E-6</v>
       </c>
       <c r="P26" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>2.0999999999999998E-6</v>
       </c>
       <c r="Q26" s="9">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K27" s="32" t="str">
@@ -12522,19 +12522,19 @@
         <v>NR</v>
       </c>
       <c r="M27" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q27" s="9">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>7.4000000000000001E-9</v>
       </c>
       <c r="K28" s="32" t="str">
@@ -12586,19 +12586,19 @@
         <v>+III</v>
       </c>
       <c r="M28" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0.99999999260000005</v>
       </c>
       <c r="N28" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0.99999999260000005</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>2.22E-8</v>
       </c>
       <c r="P28" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>2.22E-8</v>
       </c>
       <c r="Q28" s="9">
@@ -12640,7 +12640,7 @@
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K29" s="32" t="str">
@@ -12648,19 +12648,19 @@
         <v>NR</v>
       </c>
       <c r="M29" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N29" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O29" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q29" s="9">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>7.0000000000000005E-8</v>
       </c>
       <c r="K30" s="32" t="str">
@@ -12712,19 +12712,19 @@
         <v>+II</v>
       </c>
       <c r="M30" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0.99999992999999998</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0.99999992999999998</v>
       </c>
       <c r="O30" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>2.1E-7</v>
       </c>
       <c r="P30" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>2.1E-7</v>
       </c>
       <c r="Q30" s="9">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K31" s="34" t="str">
@@ -12774,19 +12774,19 @@
         <v>NR</v>
       </c>
       <c r="M31" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N31" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O31" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q31" s="9">
@@ -12928,8 +12928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
   <dimension ref="B2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12953,7 +12953,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -12995,7 +12995,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(1-PRODUCT(N11:N31)&gt;MAX(P11:P31),"Ja","Nee")</f>
+        <f>IF(1-PRODUCT(N11:N31)&gt;=MAX(P11:P31),"Ja","Nee")</f>
         <v>Ja</v>
       </c>
     </row>
@@ -13102,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f>IF(J11="-",0,O11)</f>
+        <f t="shared" ref="P11:P31" si="5">IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
@@ -13118,7 +13118,7 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f t="shared" ref="T11:T31" si="6">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -13166,7 +13166,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P31" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="Q12" s="9">
@@ -13182,7 +13182,7 @@
         <v>+II</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T31" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14505,7 +14505,7 @@
   <dimension ref="B2:U33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K31"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14571,7 +14571,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(1-PRODUCT(N11:N31)&gt;MAX(P11:P31),"Ja","Nee")</f>
+        <f>IF(1-PRODUCT(N11:N31)&gt;=MAX(P11:P31),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
@@ -14678,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f>IF(J11="-",0,O11)</f>
+        <f t="shared" ref="P11:P31" si="5">IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
@@ -14694,7 +14694,7 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f t="shared" ref="T11:T31" si="6">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -14742,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P31" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -14758,7 +14758,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T31" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/benchmarktests/testdefinitions/Benchmarktest_traject 36-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 36-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16105F40-34E9-4AB0-93E8-1A694D9984CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405B8199-53A7-4EA8-9BB5-270A917E01FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="525" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="5" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2284,8 +2284,8 @@
   </sheetPr>
   <dimension ref="B1:L103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2354,7 @@
         <v>-III</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I3" s="4" t="str">
@@ -2398,7 +2398,7 @@
         <v>-III</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I4" s="9" t="str">
@@ -2442,7 +2442,7 @@
         <v>-III</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I5" s="9" t="str">
@@ -2486,7 +2486,7 @@
         <v>-III</v>
       </c>
       <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I6" s="9" t="str">
@@ -2530,7 +2530,7 @@
         <v>-III</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I7" s="9" t="str">
@@ -2574,7 +2574,7 @@
         <v>-III</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I8" s="9" t="str">
@@ -2618,7 +2618,7 @@
         <v>-III</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I9" s="9" t="str">
@@ -2662,7 +2662,7 @@
         <v>-III</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I10" s="9" t="str">
@@ -2706,7 +2706,7 @@
         <v>-III</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I11" s="9" t="str">
@@ -2750,7 +2750,7 @@
         <v>-III</v>
       </c>
       <c r="H12" s="9" t="str">
-        <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I12" s="9" t="str">
@@ -2794,7 +2794,7 @@
         <v>-III</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I13" s="9" t="str">
@@ -2838,7 +2838,7 @@
         <v>-III</v>
       </c>
       <c r="H14" s="9" t="str">
-        <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I14" s="9" t="str">
@@ -2882,7 +2882,7 @@
         <v>-III</v>
       </c>
       <c r="H15" s="9" t="str">
-        <f t="array" ref="H15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H15">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I15" s="9" t="str">
@@ -2926,7 +2926,7 @@
         <v>-III</v>
       </c>
       <c r="H16" s="9" t="str">
-        <f t="array" ref="H16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H16">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I16" s="9" t="str">
@@ -2970,7 +2970,7 @@
         <v>-III</v>
       </c>
       <c r="H17" s="9" t="str">
-        <f t="array" ref="H17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H17">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I17" s="9" t="str">
@@ -3014,7 +3014,7 @@
         <v>-III</v>
       </c>
       <c r="H18" s="9" t="str">
-        <f t="array" ref="H18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H18">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I18" s="9" t="str">
@@ -3058,7 +3058,7 @@
         <v>-III</v>
       </c>
       <c r="H19" s="9" t="str">
-        <f t="array" ref="H19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H19">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I19" s="9" t="str">
@@ -3102,7 +3102,7 @@
         <v>-III</v>
       </c>
       <c r="H20" s="9" t="str">
-        <f t="array" ref="H20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H20">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I20" s="9" t="str">
@@ -3146,7 +3146,7 @@
         <v>-III</v>
       </c>
       <c r="H21" s="9" t="str">
-        <f t="array" ref="H21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H21">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I21" s="9" t="str">
@@ -3190,7 +3190,7 @@
         <v>-III</v>
       </c>
       <c r="H22" s="9" t="str">
-        <f t="array" ref="H22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H22">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I22" s="9" t="str">
@@ -3234,7 +3234,7 @@
         <v>-III</v>
       </c>
       <c r="H23" s="9" t="str">
-        <f t="array" ref="H23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H23">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I23" s="9" t="str">
@@ -3278,7 +3278,7 @@
         <v>-III</v>
       </c>
       <c r="H24" s="9" t="str">
-        <f t="array" ref="H24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H24">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I24" s="9" t="str">
@@ -3322,7 +3322,7 @@
         <v>-III</v>
       </c>
       <c r="H25" s="9" t="str">
-        <f t="array" ref="H25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H25">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I25" s="9" t="str">
@@ -3366,7 +3366,7 @@
         <v>-III</v>
       </c>
       <c r="H26" s="9" t="str">
-        <f t="array" ref="H26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H26">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I26" s="9" t="str">
@@ -3410,7 +3410,7 @@
         <v>-III</v>
       </c>
       <c r="H27" s="9" t="str">
-        <f t="array" ref="H27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H27">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I27" s="9" t="str">
@@ -3454,7 +3454,7 @@
         <v>-III</v>
       </c>
       <c r="H28" s="9" t="str">
-        <f t="array" ref="H28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H28">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I28" s="9" t="str">
@@ -3498,7 +3498,7 @@
         <v>-III</v>
       </c>
       <c r="H29" s="9" t="str">
-        <f t="array" ref="H29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H29">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I29" s="9" t="str">
@@ -3542,7 +3542,7 @@
         <v>-III</v>
       </c>
       <c r="H30" s="9" t="str">
-        <f t="array" ref="H30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H30">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I30" s="9" t="str">
@@ -3586,7 +3586,7 @@
         <v>-III</v>
       </c>
       <c r="H31" s="9" t="str">
-        <f t="array" ref="H31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H31">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I31" s="9" t="str">
@@ -3630,7 +3630,7 @@
         <v>-III</v>
       </c>
       <c r="H32" s="9" t="str">
-        <f t="array" ref="H32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H32">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I32" s="9" t="str">
@@ -3674,7 +3674,7 @@
         <v>-III</v>
       </c>
       <c r="H33" s="9" t="str">
-        <f t="array" ref="H33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H33">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I33" s="9" t="str">
@@ -3718,7 +3718,7 @@
         <v>-III</v>
       </c>
       <c r="H34" s="9" t="str">
-        <f t="array" ref="H34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H34">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I34" s="9" t="str">
@@ -3762,7 +3762,7 @@
         <v>-III</v>
       </c>
       <c r="H35" s="9" t="str">
-        <f t="array" ref="H35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H35">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I35" s="9" t="str">
@@ -3806,7 +3806,7 @@
         <v>-III</v>
       </c>
       <c r="H36" s="9" t="str">
-        <f t="array" ref="H36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H36">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I36" s="9" t="str">
@@ -3850,7 +3850,7 @@
         <v>-III</v>
       </c>
       <c r="H37" s="9" t="str">
-        <f t="array" ref="H37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H37">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I37" s="9" t="str">
@@ -3894,7 +3894,7 @@
         <v>-III</v>
       </c>
       <c r="H38" s="9" t="str">
-        <f t="array" ref="H38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H38">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I38" s="9" t="str">
@@ -3938,7 +3938,7 @@
         <v>-III</v>
       </c>
       <c r="H39" s="9" t="str">
-        <f t="array" ref="H39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H39">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I39" s="9" t="str">
@@ -3982,7 +3982,7 @@
         <v>-III</v>
       </c>
       <c r="H40" s="9" t="str">
-        <f t="array" ref="H40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H40">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I40" s="9" t="str">
@@ -4026,7 +4026,7 @@
         <v>-III</v>
       </c>
       <c r="H41" s="9" t="str">
-        <f t="array" ref="H41">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H41">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I41" s="9" t="str">
@@ -4070,7 +4070,7 @@
         <v>-III</v>
       </c>
       <c r="H42" s="9" t="str">
-        <f t="array" ref="H42">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H42">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I42" s="9" t="str">
@@ -4114,7 +4114,7 @@
         <v>-III</v>
       </c>
       <c r="H43" s="9" t="str">
-        <f t="array" ref="H43">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H43">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I43" s="9" t="str">
@@ -4158,7 +4158,7 @@
         <v>-III</v>
       </c>
       <c r="H44" s="9" t="str">
-        <f t="array" ref="H44">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H44">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I44" s="9" t="str">
@@ -4202,7 +4202,7 @@
         <v>-III</v>
       </c>
       <c r="H45" s="9" t="str">
-        <f t="array" ref="H45">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H45">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I45" s="9" t="str">
@@ -4246,7 +4246,7 @@
         <v>-III</v>
       </c>
       <c r="H46" s="9" t="str">
-        <f t="array" ref="H46">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H46">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I46" s="9" t="str">
@@ -4290,7 +4290,7 @@
         <v>-III</v>
       </c>
       <c r="H47" s="9" t="str">
-        <f t="array" ref="H47">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H47">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I47" s="9" t="str">
@@ -4334,7 +4334,7 @@
         <v>-III</v>
       </c>
       <c r="H48" s="9" t="str">
-        <f t="array" ref="H48">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H48">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I48" s="9" t="str">
@@ -4378,7 +4378,7 @@
         <v>-III</v>
       </c>
       <c r="H49" s="9" t="str">
-        <f t="array" ref="H49">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H49">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I49" s="9" t="str">
@@ -4422,7 +4422,7 @@
         <v>-III</v>
       </c>
       <c r="H50" s="9" t="str">
-        <f t="array" ref="H50">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H50">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I50" s="9" t="str">
@@ -4466,7 +4466,7 @@
         <v>-III</v>
       </c>
       <c r="H51" s="9" t="str">
-        <f t="array" ref="H51">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H51">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I51" s="9" t="str">
@@ -4510,7 +4510,7 @@
         <v>-III</v>
       </c>
       <c r="H52" s="9" t="str">
-        <f t="array" ref="H52">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H52">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-II</v>
       </c>
       <c r="I52" s="9" t="str">
@@ -4554,7 +4554,7 @@
         <v>-III</v>
       </c>
       <c r="H53" s="9" t="str">
-        <f t="array" ref="H53">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H53">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-II</v>
       </c>
       <c r="I53" s="9" t="str">
@@ -4598,7 +4598,7 @@
         <v>-III</v>
       </c>
       <c r="H54" s="9" t="str">
-        <f t="array" ref="H54">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H54">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-II</v>
       </c>
       <c r="I54" s="9" t="str">
@@ -4642,7 +4642,7 @@
         <v>-III</v>
       </c>
       <c r="H55" s="9" t="str">
-        <f t="array" ref="H55">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H55">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I55" s="9" t="str">
@@ -4686,7 +4686,7 @@
         <v>-III</v>
       </c>
       <c r="H56" s="9" t="str">
-        <f t="array" ref="H56">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H56">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I56" s="9" t="str">
@@ -4730,7 +4730,7 @@
         <v>-III</v>
       </c>
       <c r="H57" s="9" t="str">
-        <f t="array" ref="H57">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H57">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I57" s="9" t="str">
@@ -4774,7 +4774,7 @@
         <v>-III</v>
       </c>
       <c r="H58" s="9" t="str">
-        <f t="array" ref="H58">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H58">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I58" s="9" t="str">
@@ -4818,7 +4818,7 @@
         <v>-III</v>
       </c>
       <c r="H59" s="9" t="str">
-        <f t="array" ref="H59">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H59">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I59" s="9" t="str">
@@ -4862,7 +4862,7 @@
         <v>-III</v>
       </c>
       <c r="H60" s="9" t="str">
-        <f t="array" ref="H60">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H60">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I60" s="9" t="str">
@@ -4906,7 +4906,7 @@
         <v>-III</v>
       </c>
       <c r="H61" s="9" t="str">
-        <f t="array" ref="H61">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H61">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I61" s="9" t="str">
@@ -4950,7 +4950,7 @@
         <v>-III</v>
       </c>
       <c r="H62" s="9" t="str">
-        <f t="array" ref="H62">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H62">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I62" s="9" t="str">
@@ -4994,7 +4994,7 @@
         <v>-III</v>
       </c>
       <c r="H63" s="9" t="str">
-        <f t="array" ref="H63">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H63">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I63" s="9" t="str">
@@ -5038,7 +5038,7 @@
         <v>-III</v>
       </c>
       <c r="H64" s="9" t="str">
-        <f t="array" ref="H64">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H64">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I64" s="9" t="str">
@@ -5082,7 +5082,7 @@
         <v>-III</v>
       </c>
       <c r="H65" s="9" t="str">
-        <f t="array" ref="H65">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H65">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I65" s="9" t="str">
@@ -5126,7 +5126,7 @@
         <v>-III</v>
       </c>
       <c r="H66" s="9" t="str">
-        <f t="array" ref="H66">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H66">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>-I</v>
       </c>
       <c r="I66" s="9" t="str">
@@ -5170,7 +5170,7 @@
         <v>-III</v>
       </c>
       <c r="H67" s="9" t="str">
-        <f t="array" ref="H67">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H67">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+0</v>
       </c>
       <c r="I67" s="9" t="str">
@@ -5214,8 +5214,8 @@
         <v>-III</v>
       </c>
       <c r="H68" s="9" t="str">
-        <f t="array" ref="H68">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+0</v>
+        <f t="array" ref="H68">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>-I</v>
       </c>
       <c r="I68" s="9" t="str">
         <f t="array" ref="I68">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B68,C68),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -11030,7 +11030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
   <dimension ref="B2:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/benchmarktests/testdefinitions/Benchmarktest_traject 36-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 36-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405B8199-53A7-4EA8-9BB5-270A917E01FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB492C7-FEBA-4C45-A7E7-E75EA4F3C47A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="135">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -1976,8 +1976,8 @@
   </sheetPr>
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,20 +1992,20 @@
         <v>73</v>
       </c>
       <c r="D2" s="1">
-        <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
-        <v>0.64049290304587903</v>
+        <f>IFERROR(1-PRODUCT(G7:G14),"GR")</f>
+        <v>0.64051565984511616</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,H2))</f>
-        <v>A+</v>
+        <v>D</v>
       </c>
       <c r="G2">
-        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>0</v>
+        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H2">
         <f>IFERROR(MATCH(G2,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2013,20 +2013,20 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <f>1-PRODUCT(H7:H12)</f>
-        <v>0.64049290304587903</v>
+        <f>1-PRODUCT(H7:H14)</f>
+        <v>0.64051565984511616</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,H3)</f>
-        <v>A+</v>
+        <v>D</v>
       </c>
       <c r="G3">
-        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>0</v>
+        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H3">
         <f>IFERROR(MATCH(G3,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2088,11 +2088,11 @@
       </c>
       <c r="E8" s="49"/>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G14" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" ref="G8:G13" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
         <v>0.81518554806304655</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:H14" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" ref="H8:H13" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
         <v>0.81518554806304655</v>
       </c>
     </row>
@@ -2185,17 +2185,25 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="31">
+        <f>BSKW!C5</f>
+        <v>6.3300000000000007E-5</v>
+      </c>
+      <c r="D13" s="26">
+        <f>BSKW!C6</f>
+        <v>6.3300000000000007E-5</v>
+      </c>
       <c r="E13" s="49"/>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99993670000000001</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99993670000000001</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2203,14 +2211,8 @@
       <c r="C14" s="33"/>
       <c r="D14" s="27"/>
       <c r="E14" s="51"/>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,7 +2286,7 @@
   </sheetPr>
   <dimension ref="B1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H68"/>
     </sheetView>
   </sheetViews>
